--- a/Code/Results/Cases/Case_1_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.298437352849305</v>
+        <v>1.378450887226961</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06162400285445102</v>
+        <v>0.02016070357404942</v>
       </c>
       <c r="E2">
-        <v>3.014541369316447</v>
+        <v>1.48330007287413</v>
       </c>
       <c r="F2">
-        <v>0.2802513652910932</v>
+        <v>0.2900348800685251</v>
       </c>
       <c r="G2">
-        <v>0.1895490741201797</v>
+        <v>0.1551114414540962</v>
       </c>
       <c r="H2">
-        <v>0.1238173596728274</v>
+        <v>0.3165570257724823</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.387049079046704</v>
+        <v>0.4962858633494989</v>
       </c>
       <c r="M2">
-        <v>0.8702613757054607</v>
+        <v>0.3932738228159991</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6142481939856879</v>
+        <v>0.8429161055172187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.013660837421924</v>
+        <v>1.289590310194171</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05372721179765705</v>
+        <v>0.01757646496097465</v>
       </c>
       <c r="E3">
-        <v>2.676656976733597</v>
+        <v>1.378320081133893</v>
       </c>
       <c r="F3">
-        <v>0.2481339141838959</v>
+        <v>0.2880854034570177</v>
       </c>
       <c r="G3">
-        <v>0.1643964346589541</v>
+        <v>0.1538616753938484</v>
       </c>
       <c r="H3">
-        <v>0.1190073145225483</v>
+        <v>0.3206078687975165</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.205693773393193</v>
+        <v>0.43635425152587</v>
       </c>
       <c r="M3">
-        <v>0.7578565353739748</v>
+        <v>0.356833672571824</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5504428385100084</v>
+        <v>0.8484505877793111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.839689763622658</v>
+        <v>1.23503747975073</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04887201040824607</v>
+        <v>0.01598351419895749</v>
       </c>
       <c r="E4">
-        <v>2.470403774332709</v>
+        <v>1.314274823987063</v>
       </c>
       <c r="F4">
-        <v>0.2294559458762535</v>
+        <v>0.287263024441927</v>
       </c>
       <c r="G4">
-        <v>0.1499314549826138</v>
+        <v>0.1533848392322383</v>
       </c>
       <c r="H4">
-        <v>0.1166613590465602</v>
+        <v>0.3233820879199882</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.094642589634361</v>
+        <v>0.3993999589799557</v>
       </c>
       <c r="M4">
-        <v>0.689082609275637</v>
+        <v>0.3343907077836406</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5146028938250424</v>
+        <v>0.8530553969659138</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768973492247824</v>
+        <v>1.212809684819177</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04689147188425835</v>
+        <v>0.01533287116848925</v>
       </c>
       <c r="E5">
-        <v>2.386624934112305</v>
+        <v>1.288283132790951</v>
       </c>
       <c r="F5">
-        <v>0.2220854276560615</v>
+        <v>0.2870215742107831</v>
       </c>
       <c r="G5">
-        <v>0.1442614676732248</v>
+        <v>0.1532629311130194</v>
       </c>
       <c r="H5">
-        <v>0.1158483772800452</v>
+        <v>0.3245845541237387</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.049440422111132</v>
+        <v>0.3843023887412755</v>
       </c>
       <c r="M5">
-        <v>0.6611018286394454</v>
+        <v>0.3252281936868684</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5007708623929972</v>
+        <v>0.8552334752999684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.757240665851072</v>
+        <v>1.209118981386837</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.046562474119618</v>
+        <v>0.01522474343553171</v>
       </c>
       <c r="E6">
-        <v>2.372728988719075</v>
+        <v>1.283973814067366</v>
       </c>
       <c r="F6">
-        <v>0.2208755104615605</v>
+        <v>0.2869871240148996</v>
       </c>
       <c r="G6">
-        <v>0.1433329287567844</v>
+        <v>0.153247042471591</v>
       </c>
       <c r="H6">
-        <v>0.1157217453004264</v>
+        <v>0.3247885619513013</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.041937124715446</v>
+        <v>0.3817931550405831</v>
       </c>
       <c r="M6">
-        <v>0.6564579246258617</v>
+        <v>0.3237057617029535</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4985188897391026</v>
+        <v>0.8556133044441623</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.838735392497284</v>
+        <v>1.234737694831409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04884530873744808</v>
+        <v>0.01597474540256627</v>
       </c>
       <c r="E7">
-        <v>2.469272847489862</v>
+        <v>1.313923851987198</v>
       </c>
       <c r="F7">
-        <v>0.2293555962623444</v>
+        <v>0.2872593895646744</v>
       </c>
       <c r="G7">
-        <v>0.1498541057329916</v>
+        <v>0.1533829028274809</v>
       </c>
       <c r="H7">
-        <v>0.1166498283121697</v>
+        <v>0.3233980137673385</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.094032796500585</v>
+        <v>0.3991965021918418</v>
       </c>
       <c r="M7">
-        <v>0.6887050880944585</v>
+        <v>0.334267206468823</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5144133049160189</v>
+        <v>0.8530835526392195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.200035821320625</v>
+        <v>1.347810637767623</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05890231548921321</v>
+        <v>0.01927098411536576</v>
       </c>
       <c r="E8">
-        <v>2.897766811283475</v>
+        <v>1.447019286854612</v>
       </c>
       <c r="F8">
-        <v>0.2689478347622014</v>
+        <v>0.2892846360923329</v>
       </c>
       <c r="G8">
-        <v>0.1806599578043375</v>
+        <v>0.1546198338242348</v>
       </c>
       <c r="H8">
-        <v>0.1220267621902806</v>
+        <v>0.3178940636368139</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.324440179025402</v>
+        <v>0.4756543078970594</v>
       </c>
       <c r="M8">
-        <v>0.8314436989740059</v>
+        <v>0.380723724453226</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5915146820002235</v>
+        <v>0.8445728618186763</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.917719813154463</v>
+        <v>1.569580963608473</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07859143982486216</v>
+        <v>0.02568321846760568</v>
       </c>
       <c r="E9">
-        <v>3.749350613658237</v>
+        <v>1.711160991279229</v>
       </c>
       <c r="F9">
-        <v>0.3558751437708452</v>
+        <v>0.2962525814909256</v>
       </c>
       <c r="G9">
-        <v>0.2498707930785713</v>
+        <v>0.1593800431819119</v>
       </c>
       <c r="H9">
-        <v>0.1378574130117016</v>
+        <v>0.3093876028092737</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.779858848665782</v>
+        <v>0.6243212082545426</v>
       </c>
       <c r="M9">
-        <v>1.114080962656899</v>
+        <v>0.4712675612250763</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7723565066031881</v>
+        <v>0.837540240735791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.453930325795511</v>
+        <v>1.732517640810727</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09306854186486646</v>
+        <v>0.03036011457328414</v>
       </c>
       <c r="E10">
-        <v>4.384634327410396</v>
+        <v>1.906986666060476</v>
       </c>
       <c r="F10">
-        <v>0.4269171736948181</v>
+        <v>0.3032327864335045</v>
       </c>
       <c r="G10">
-        <v>0.3076263220219602</v>
+        <v>0.1643415153032208</v>
       </c>
       <c r="H10">
-        <v>0.1534062083445633</v>
+        <v>0.3045453061687198</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.118503080163748</v>
+        <v>0.7327487446042937</v>
       </c>
       <c r="M10">
-        <v>1.32462991670063</v>
+        <v>0.5374401805929097</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9280184207968318</v>
+        <v>0.8383754767977791</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.700628727314211</v>
+        <v>1.806639900176378</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09966505802964321</v>
+        <v>0.03247981036659553</v>
       </c>
       <c r="E11">
-        <v>4.676426279434253</v>
+        <v>1.996425234989886</v>
       </c>
       <c r="F11">
-        <v>0.4611597910655902</v>
+        <v>0.3068196539210675</v>
       </c>
       <c r="G11">
-        <v>0.3357731078708923</v>
+        <v>0.1669252872059985</v>
       </c>
       <c r="H11">
-        <v>0.1614986367213191</v>
+        <v>0.302650868566559</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.273903984543551</v>
+        <v>0.7818977168363404</v>
       </c>
       <c r="M11">
-        <v>1.421348565366685</v>
+        <v>0.5674663907077644</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.00492563463132</v>
+        <v>0.8400833280486211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.794520808456184</v>
+        <v>1.834707773642378</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1021652607282704</v>
+        <v>0.03328130265283846</v>
       </c>
       <c r="E12">
-        <v>4.787386601552242</v>
+        <v>2.030341726126323</v>
       </c>
       <c r="F12">
-        <v>0.4744366138498606</v>
+        <v>0.3082376508305913</v>
       </c>
       <c r="G12">
-        <v>0.3467349280688126</v>
+        <v>0.1679513748997294</v>
       </c>
       <c r="H12">
-        <v>0.1647249305340779</v>
+        <v>0.3019780651530226</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.332986804454066</v>
+        <v>0.8004833982654418</v>
       </c>
       <c r="M12">
-        <v>1.458136297791427</v>
+        <v>0.5788253517045661</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.035029104212498</v>
+        <v>0.8409229515121694</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.774277191643421</v>
+        <v>1.828662895343143</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1016266856760097</v>
+        <v>0.03310874087638638</v>
       </c>
       <c r="E13">
-        <v>4.763467558279558</v>
+        <v>2.023035116380584</v>
       </c>
       <c r="F13">
-        <v>0.4715628745401119</v>
+        <v>0.3079295946961622</v>
       </c>
       <c r="G13">
-        <v>0.344360047456604</v>
+        <v>0.1677282576645212</v>
       </c>
       <c r="H13">
-        <v>0.1640226336320296</v>
+        <v>0.3021209789513648</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.320251062636743</v>
+        <v>0.7964818060222854</v>
       </c>
       <c r="M13">
-        <v>1.450205709379972</v>
+        <v>0.57637950521314</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.028500433139328</v>
+        <v>0.8407335135272547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.708343362578034</v>
+        <v>1.808949078077319</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09987070198683057</v>
+        <v>0.03254577383150092</v>
       </c>
       <c r="E14">
-        <v>4.685545348953013</v>
+        <v>1.999214620339529</v>
       </c>
       <c r="F14">
-        <v>0.4622456736052527</v>
+        <v>0.3069351132078921</v>
       </c>
       <c r="G14">
-        <v>0.3366686619008021</v>
+        <v>0.1670087448130317</v>
       </c>
       <c r="H14">
-        <v>0.161760729478047</v>
+        <v>0.3025946218313038</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.278759782671273</v>
+        <v>0.7834272967436391</v>
       </c>
       <c r="M14">
-        <v>1.424371691181477</v>
+        <v>0.5684011281035168</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.007381990900512</v>
+        <v>0.8401485273130049</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.668020866392851</v>
+        <v>1.796873691048177</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09879542545343156</v>
+        <v>0.03220078339528243</v>
       </c>
       <c r="E15">
-        <v>4.637878281838141</v>
+        <v>1.984630041700484</v>
       </c>
       <c r="F15">
-        <v>0.4565800028304565</v>
+        <v>0.3063337591759776</v>
       </c>
       <c r="G15">
-        <v>0.3319980105291904</v>
+        <v>0.1665742504828955</v>
       </c>
       <c r="H15">
-        <v>0.1603968041742405</v>
+        <v>0.3028905543419995</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.253377202096971</v>
+        <v>0.775427628898683</v>
       </c>
       <c r="M15">
-        <v>1.40856962881179</v>
+        <v>0.5635126575147922</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9945772402739692</v>
+        <v>0.8398153848879986</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.437869979349102</v>
+        <v>1.7276735353459</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09263771889082051</v>
+        <v>0.0302214242328489</v>
       </c>
       <c r="E16">
-        <v>4.365626550659556</v>
+        <v>1.901148541840058</v>
       </c>
       <c r="F16">
-        <v>0.4247208416902808</v>
+        <v>0.3030067044501834</v>
       </c>
       <c r="G16">
-        <v>0.305827391202655</v>
+        <v>0.1641792934399717</v>
       </c>
       <c r="H16">
-        <v>0.1528991374440238</v>
+        <v>0.3046753373212852</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.10837790650055</v>
+        <v>0.7295331508894947</v>
       </c>
       <c r="M16">
-        <v>1.318330307323592</v>
+        <v>0.5354763342404425</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9231236934471951</v>
+        <v>0.8382907520995957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.297440702905362</v>
+        <v>1.685221268390592</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08886340221081923</v>
+        <v>0.02900509713849431</v>
       </c>
       <c r="E17">
-        <v>4.199368145288901</v>
+        <v>1.850024335719837</v>
       </c>
       <c r="F17">
-        <v>0.4056920454059494</v>
+        <v>0.3010714609194522</v>
       </c>
       <c r="G17">
-        <v>0.2902756094618724</v>
+        <v>0.1627942442006827</v>
       </c>
       <c r="H17">
-        <v>0.1485710970406444</v>
+        <v>0.3058493895290297</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.019799728882504</v>
+        <v>0.7013329328810016</v>
       </c>
       <c r="M17">
-        <v>1.26323061153748</v>
+        <v>0.5182572068165996</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8809217061677543</v>
+        <v>0.8376969346923886</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.216925738814666</v>
+        <v>1.660804040804635</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08669348686646572</v>
+        <v>0.02830476295980588</v>
       </c>
       <c r="E18">
-        <v>4.103999953168568</v>
+        <v>1.820652785764082</v>
       </c>
       <c r="F18">
-        <v>0.3949262660920354</v>
+        <v>0.2999970632619551</v>
       </c>
       <c r="G18">
-        <v>0.2815047929524326</v>
+        <v>0.1620283175717461</v>
       </c>
       <c r="H18">
-        <v>0.146176665831419</v>
+        <v>0.3065536822193735</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.968976233622726</v>
+        <v>0.6850964611066956</v>
       </c>
       <c r="M18">
-        <v>1.231625301063701</v>
+        <v>0.5083460838604452</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.85721530017193</v>
+        <v>0.8374802589713681</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.189706623236418</v>
+        <v>1.65253684653004</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08595893787997966</v>
+        <v>0.02806751750431147</v>
       </c>
       <c r="E19">
-        <v>4.07175264501916</v>
+        <v>1.810713978073693</v>
       </c>
       <c r="F19">
-        <v>0.3913109524884959</v>
+        <v>0.2996399211878469</v>
       </c>
       <c r="G19">
-        <v>0.2785640714564579</v>
+        <v>0.1617742428875175</v>
       </c>
       <c r="H19">
-        <v>0.1453818134093012</v>
+        <v>0.3067971186289213</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.951788418630827</v>
+        <v>0.6795962688813404</v>
       </c>
       <c r="M19">
-        <v>1.220938360618064</v>
+        <v>0.5049891340337211</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8492830887251728</v>
+        <v>0.837428283740536</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.312362605363319</v>
+        <v>1.68974037084223</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08926507932239502</v>
+        <v>0.02913465375608126</v>
       </c>
       <c r="E20">
-        <v>4.217039372526301</v>
+        <v>1.855463126209429</v>
       </c>
       <c r="F20">
-        <v>0.4076989283268873</v>
+        <v>0.301273461264195</v>
       </c>
       <c r="G20">
-        <v>0.2919128624804443</v>
+        <v>0.1629385010205056</v>
       </c>
       <c r="H20">
-        <v>0.149021891269058</v>
+        <v>0.3057214056172484</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.029215869931051</v>
+        <v>0.7043366026233286</v>
       </c>
       <c r="M20">
-        <v>1.269086917063092</v>
+        <v>0.5200909536935541</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8853547667668522</v>
+        <v>0.8377472096089491</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.727696272526146</v>
+        <v>1.814739527352003</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1003864101469816</v>
+        <v>0.03271116369941751</v>
       </c>
       <c r="E21">
-        <v>4.708419836862532</v>
+        <v>2.006209998706396</v>
       </c>
       <c r="F21">
-        <v>0.4649736741283945</v>
+        <v>0.3072255911660235</v>
       </c>
       <c r="G21">
-        <v>0.3389192943821797</v>
+        <v>0.1672187840474919</v>
       </c>
       <c r="H21">
-        <v>0.1624205840679593</v>
+        <v>0.302454289676561</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.290940022689256</v>
+        <v>0.787262433273213</v>
       </c>
       <c r="M21">
-        <v>1.431955126878961</v>
+        <v>0.5707448808248046</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.013557510964233</v>
+        <v>0.8403151013033323</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.001935800873071</v>
+        <v>1.896429738566496</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1076683055873389</v>
+        <v>0.03504165228142142</v>
       </c>
       <c r="E22">
-        <v>5.03230999970171</v>
+        <v>2.10501040992645</v>
       </c>
       <c r="F22">
-        <v>0.5042296587753938</v>
+        <v>0.3114640450977291</v>
       </c>
       <c r="G22">
-        <v>0.3714260805967768</v>
+        <v>0.1702943627176836</v>
       </c>
       <c r="H22">
-        <v>0.1721289565719957</v>
+        <v>0.300578991015243</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.463389127734217</v>
+        <v>0.8413075637865006</v>
       </c>
       <c r="M22">
-        <v>1.539360660045361</v>
+        <v>0.6037840449406673</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.103114511624113</v>
+        <v>0.8431186159126298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.855286997304802</v>
+        <v>1.852830766309467</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1037803407920848</v>
+        <v>0.03379848447403333</v>
       </c>
       <c r="E23">
-        <v>4.859170110335612</v>
+        <v>2.052254318947007</v>
       </c>
       <c r="F23">
-        <v>0.4830994888100761</v>
+        <v>0.3091698439413904</v>
       </c>
       <c r="G23">
-        <v>0.3539012897272471</v>
+        <v>0.1686271926329681</v>
       </c>
       <c r="H23">
-        <v>0.1668549434934476</v>
+        <v>0.3015560090910867</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.371207057950926</v>
+        <v>0.8124767856888866</v>
       </c>
       <c r="M23">
-        <v>1.481938529513783</v>
+        <v>0.5861565905621688</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.054751731071974</v>
+        <v>0.8415187264621693</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.30561573445641</v>
+        <v>1.68769731835647</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08908348118392695</v>
+        <v>0.02907608448064991</v>
       </c>
       <c r="E24">
-        <v>4.209049542617862</v>
+        <v>1.853004185125144</v>
       </c>
       <c r="F24">
-        <v>0.4067910766496325</v>
+        <v>0.3011820179608762</v>
       </c>
       <c r="G24">
-        <v>0.2911721330594048</v>
+        <v>0.1628731880058609</v>
       </c>
       <c r="H24">
-        <v>0.1488177961213069</v>
+        <v>0.3057791758469506</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.024958520207093</v>
+        <v>0.7029787175899571</v>
       </c>
       <c r="M24">
-        <v>1.266439058372256</v>
+        <v>0.5192619528892806</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8833488557504552</v>
+        <v>0.8377240919764972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.722258358638896</v>
+        <v>1.509584623591024</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07326546346913432</v>
+        <v>0.02395435060999063</v>
       </c>
       <c r="E25">
-        <v>3.517499773050417</v>
+        <v>1.639383605292693</v>
       </c>
       <c r="F25">
-        <v>0.3312149749594724</v>
+        <v>0.2940432337344205</v>
       </c>
       <c r="G25">
-        <v>0.2300530222182573</v>
+        <v>0.1578381027993672</v>
       </c>
       <c r="H25">
-        <v>0.1329401802720085</v>
+        <v>0.3114426291174155</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.65609026727401</v>
+        <v>0.5842412662721301</v>
       </c>
       <c r="M25">
-        <v>1.037207572350624</v>
+        <v>0.446833832126714</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7197935298706994</v>
+        <v>0.8383969894764789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.378450887226961</v>
+        <v>2.298437352849419</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02016070357404942</v>
+        <v>0.06162400285438707</v>
       </c>
       <c r="E2">
-        <v>1.48330007287413</v>
+        <v>3.014541369316561</v>
       </c>
       <c r="F2">
-        <v>0.2900348800685251</v>
+        <v>0.2802513652910932</v>
       </c>
       <c r="G2">
-        <v>0.1551114414540962</v>
+        <v>0.1895490741201655</v>
       </c>
       <c r="H2">
-        <v>0.3165570257724823</v>
+        <v>0.1238173596729411</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4962858633494989</v>
+        <v>1.387049079046676</v>
       </c>
       <c r="M2">
-        <v>0.3932738228159991</v>
+        <v>0.8702613757054891</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8429161055172187</v>
+        <v>0.6142481939856879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.289590310194171</v>
+        <v>2.013660837421583</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01757646496097465</v>
+        <v>0.05372721179766415</v>
       </c>
       <c r="E3">
-        <v>1.378320081133893</v>
+        <v>2.676656976733511</v>
       </c>
       <c r="F3">
-        <v>0.2880854034570177</v>
+        <v>0.2481339141839172</v>
       </c>
       <c r="G3">
-        <v>0.1538616753938484</v>
+        <v>0.1643964346588831</v>
       </c>
       <c r="H3">
-        <v>0.3206078687975165</v>
+        <v>0.1190073145224346</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.43635425152587</v>
+        <v>1.205693773393591</v>
       </c>
       <c r="M3">
-        <v>0.356833672571824</v>
+        <v>0.7578565353739819</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8484505877793111</v>
+        <v>0.5504428385100084</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.23503747975073</v>
+        <v>1.839689763622147</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01598351419895749</v>
+        <v>0.04887201040835265</v>
       </c>
       <c r="E4">
-        <v>1.314274823987063</v>
+        <v>2.470403774332738</v>
       </c>
       <c r="F4">
-        <v>0.287263024441927</v>
+        <v>0.2294559458762606</v>
       </c>
       <c r="G4">
-        <v>0.1533848392322383</v>
+        <v>0.1499314549826209</v>
       </c>
       <c r="H4">
-        <v>0.3233820879199882</v>
+        <v>0.1166613590465673</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3993999589799557</v>
+        <v>1.09464258963439</v>
       </c>
       <c r="M4">
-        <v>0.3343907077836406</v>
+        <v>0.6890826092756512</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8530553969659138</v>
+        <v>0.5146028938250282</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.212809684819177</v>
+        <v>1.768973492247653</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01533287116848925</v>
+        <v>0.04689147188437204</v>
       </c>
       <c r="E5">
-        <v>1.288283132790951</v>
+        <v>2.386624934112305</v>
       </c>
       <c r="F5">
-        <v>0.2870215742107831</v>
+        <v>0.2220854276560544</v>
       </c>
       <c r="G5">
-        <v>0.1532629311130194</v>
+        <v>0.1442614676731679</v>
       </c>
       <c r="H5">
-        <v>0.3245845541237387</v>
+        <v>0.1158483772800381</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3843023887412755</v>
+        <v>1.049440422111473</v>
       </c>
       <c r="M5">
-        <v>0.3252281936868684</v>
+        <v>0.6611018286394099</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8552334752999684</v>
+        <v>0.500770862392983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.209118981386837</v>
+        <v>1.757240665851043</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01522474343553171</v>
+        <v>0.04656247411960379</v>
       </c>
       <c r="E6">
-        <v>1.283973814067366</v>
+        <v>2.372728988719061</v>
       </c>
       <c r="F6">
-        <v>0.2869871240148996</v>
+        <v>0.2208755104615605</v>
       </c>
       <c r="G6">
-        <v>0.153247042471591</v>
+        <v>0.1433329287569052</v>
       </c>
       <c r="H6">
-        <v>0.3247885619513013</v>
+        <v>0.1157217453004264</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3817931550405831</v>
+        <v>1.041937124715673</v>
       </c>
       <c r="M6">
-        <v>0.3237057617029535</v>
+        <v>0.6564579246258901</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8556133044441623</v>
+        <v>0.4985188897391595</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.234737694831409</v>
+        <v>1.838735392497341</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01597474540256627</v>
+        <v>0.0488453087374694</v>
       </c>
       <c r="E7">
-        <v>1.313923851987198</v>
+        <v>2.469272847489748</v>
       </c>
       <c r="F7">
-        <v>0.2872593895646744</v>
+        <v>0.2293555962623444</v>
       </c>
       <c r="G7">
-        <v>0.1533829028274809</v>
+        <v>0.1498541057329916</v>
       </c>
       <c r="H7">
-        <v>0.3233980137673385</v>
+        <v>0.116649828312184</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3991965021918418</v>
+        <v>1.094032796500699</v>
       </c>
       <c r="M7">
-        <v>0.334267206468823</v>
+        <v>0.688705088094494</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8530835526392195</v>
+        <v>0.5144133049159763</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.347810637767623</v>
+        <v>2.200035821320739</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01927098411536576</v>
+        <v>0.05890231548901426</v>
       </c>
       <c r="E8">
-        <v>1.447019286854612</v>
+        <v>2.897766811283418</v>
       </c>
       <c r="F8">
-        <v>0.2892846360923329</v>
+        <v>0.2689478347622156</v>
       </c>
       <c r="G8">
-        <v>0.1546198338242348</v>
+        <v>0.1806599578042878</v>
       </c>
       <c r="H8">
-        <v>0.3178940636368139</v>
+        <v>0.1220267621903872</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4756543078970594</v>
+        <v>1.324440179025657</v>
       </c>
       <c r="M8">
-        <v>0.380723724453226</v>
+        <v>0.8314436989739278</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8445728618186763</v>
+        <v>0.5915146820002946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.569580963608473</v>
+        <v>2.917719813154406</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02568321846760568</v>
+        <v>0.07859143982485506</v>
       </c>
       <c r="E9">
-        <v>1.711160991279229</v>
+        <v>3.749350613658237</v>
       </c>
       <c r="F9">
-        <v>0.2962525814909256</v>
+        <v>0.3558751437708452</v>
       </c>
       <c r="G9">
-        <v>0.1593800431819119</v>
+        <v>0.2498707930786352</v>
       </c>
       <c r="H9">
-        <v>0.3093876028092737</v>
+        <v>0.1378574130117016</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6243212082545426</v>
+        <v>1.779858848665953</v>
       </c>
       <c r="M9">
-        <v>0.4712675612250763</v>
+        <v>1.114080962656914</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.837540240735791</v>
+        <v>0.7723565066031739</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.732517640810727</v>
+        <v>3.453930325794829</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03036011457328414</v>
+        <v>0.09306854186498725</v>
       </c>
       <c r="E10">
-        <v>1.906986666060476</v>
+        <v>4.384634327410339</v>
       </c>
       <c r="F10">
-        <v>0.3032327864335045</v>
+        <v>0.426917173694811</v>
       </c>
       <c r="G10">
-        <v>0.1643415153032208</v>
+        <v>0.3076263220219602</v>
       </c>
       <c r="H10">
-        <v>0.3045453061687198</v>
+        <v>0.1534062083444496</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7327487446042937</v>
+        <v>2.118503080163521</v>
       </c>
       <c r="M10">
-        <v>0.5374401805929097</v>
+        <v>1.324629916700616</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8383754767977791</v>
+        <v>0.9280184207968318</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.806639900176378</v>
+        <v>3.700628727313699</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03247981036659553</v>
+        <v>0.09966505802964321</v>
       </c>
       <c r="E11">
-        <v>1.996425234989886</v>
+        <v>4.676426279434196</v>
       </c>
       <c r="F11">
-        <v>0.3068196539210675</v>
+        <v>0.4611597910655902</v>
       </c>
       <c r="G11">
-        <v>0.1669252872059985</v>
+        <v>0.3357731078708781</v>
       </c>
       <c r="H11">
-        <v>0.302650868566559</v>
+        <v>0.1614986367213191</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7818977168363404</v>
+        <v>2.273903984543949</v>
       </c>
       <c r="M11">
-        <v>0.5674663907077644</v>
+        <v>1.421348565366671</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8400833280486211</v>
+        <v>1.004925634631377</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.834707773642378</v>
+        <v>3.794520808455729</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03328130265283846</v>
+        <v>0.1021652607283414</v>
       </c>
       <c r="E12">
-        <v>2.030341726126323</v>
+        <v>4.787386601552186</v>
       </c>
       <c r="F12">
-        <v>0.3082376508305913</v>
+        <v>0.4744366138498677</v>
       </c>
       <c r="G12">
-        <v>0.1679513748997294</v>
+        <v>0.3467349280688268</v>
       </c>
       <c r="H12">
-        <v>0.3019780651530226</v>
+        <v>0.1647249305339642</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8004833982654418</v>
+        <v>2.332986804454123</v>
       </c>
       <c r="M12">
-        <v>0.5788253517045661</v>
+        <v>1.458136297791413</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8409229515121694</v>
+        <v>1.035029104212498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.828662895343143</v>
+        <v>3.774277191643193</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03310874087638638</v>
+        <v>0.1016266856758961</v>
       </c>
       <c r="E13">
-        <v>2.023035116380584</v>
+        <v>4.763467558279473</v>
       </c>
       <c r="F13">
-        <v>0.3079295946961622</v>
+        <v>0.4715628745401119</v>
       </c>
       <c r="G13">
-        <v>0.1677282576645212</v>
+        <v>0.3443600474565756</v>
       </c>
       <c r="H13">
-        <v>0.3021209789513648</v>
+        <v>0.1640226336321433</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7964818060222854</v>
+        <v>2.32025106263626</v>
       </c>
       <c r="M13">
-        <v>0.57637950521314</v>
+        <v>1.450205709379972</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8407335135272547</v>
+        <v>1.028500433139328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.808949078077319</v>
+        <v>3.708343362577807</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03254577383150092</v>
+        <v>0.09987070198694425</v>
       </c>
       <c r="E14">
-        <v>1.999214620339529</v>
+        <v>4.685545348953184</v>
       </c>
       <c r="F14">
-        <v>0.3069351132078921</v>
+        <v>0.4622456736052456</v>
       </c>
       <c r="G14">
-        <v>0.1670087448130317</v>
+        <v>0.3366686619007169</v>
       </c>
       <c r="H14">
-        <v>0.3025946218313038</v>
+        <v>0.1617607294781465</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7834272967436391</v>
+        <v>2.278759782671187</v>
       </c>
       <c r="M14">
-        <v>0.5684011281035168</v>
+        <v>1.424371691181449</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8401485273130049</v>
+        <v>1.007381990900512</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.796873691048177</v>
+        <v>3.66802086639251</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03220078339528243</v>
+        <v>0.09879542545328945</v>
       </c>
       <c r="E15">
-        <v>1.984630041700484</v>
+        <v>4.637878281838226</v>
       </c>
       <c r="F15">
-        <v>0.3063337591759776</v>
+        <v>0.4565800028304423</v>
       </c>
       <c r="G15">
-        <v>0.1665742504828955</v>
+        <v>0.3319980105291762</v>
       </c>
       <c r="H15">
-        <v>0.3028905543419995</v>
+        <v>0.1603968041742547</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.775427628898683</v>
+        <v>2.25337720209717</v>
       </c>
       <c r="M15">
-        <v>0.5635126575147922</v>
+        <v>1.408569628811776</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8398153848879986</v>
+        <v>0.9945772402739692</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.7276735353459</v>
+        <v>3.437869979349443</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0302214242328489</v>
+        <v>0.09263771889076367</v>
       </c>
       <c r="E16">
-        <v>1.901148541840058</v>
+        <v>4.365626550659528</v>
       </c>
       <c r="F16">
-        <v>0.3030067044501834</v>
+        <v>0.4247208416902737</v>
       </c>
       <c r="G16">
-        <v>0.1641792934399717</v>
+        <v>0.3058273912026834</v>
       </c>
       <c r="H16">
-        <v>0.3046753373212852</v>
+        <v>0.1528991374441375</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7295331508894947</v>
+        <v>2.108377906500834</v>
       </c>
       <c r="M16">
-        <v>0.5354763342404425</v>
+        <v>1.318330307323592</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8382907520995957</v>
+        <v>0.9231236934472236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.685221268390592</v>
+        <v>3.297440702905305</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02900509713849431</v>
+        <v>0.08886340221089029</v>
       </c>
       <c r="E17">
-        <v>1.850024335719837</v>
+        <v>4.199368145288844</v>
       </c>
       <c r="F17">
-        <v>0.3010714609194522</v>
+        <v>0.4056920454059565</v>
       </c>
       <c r="G17">
-        <v>0.1627942442006827</v>
+        <v>0.2902756094618155</v>
       </c>
       <c r="H17">
-        <v>0.3058493895290297</v>
+        <v>0.1485710970406444</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7013329328810016</v>
+        <v>2.019799728882361</v>
       </c>
       <c r="M17">
-        <v>0.5182572068165996</v>
+        <v>1.26323061153748</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8376969346923886</v>
+        <v>0.8809217061677543</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.660804040804635</v>
+        <v>3.216925738814894</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02830476295980588</v>
+        <v>0.08669348686653677</v>
       </c>
       <c r="E18">
-        <v>1.820652785764082</v>
+        <v>4.103999953168596</v>
       </c>
       <c r="F18">
-        <v>0.2999970632619551</v>
+        <v>0.3949262660920425</v>
       </c>
       <c r="G18">
-        <v>0.1620283175717461</v>
+        <v>0.2815047929524326</v>
       </c>
       <c r="H18">
-        <v>0.3065536822193735</v>
+        <v>0.146176665831419</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6850964611066956</v>
+        <v>1.96897623362247</v>
       </c>
       <c r="M18">
-        <v>0.5083460838604452</v>
+        <v>1.231625301063715</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8374802589713681</v>
+        <v>0.8572153001719016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.65253684653004</v>
+        <v>3.189706623236248</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02806751750431147</v>
+        <v>0.08595893787993703</v>
       </c>
       <c r="E19">
-        <v>1.810713978073693</v>
+        <v>4.071752645019103</v>
       </c>
       <c r="F19">
-        <v>0.2996399211878469</v>
+        <v>0.3913109524884817</v>
       </c>
       <c r="G19">
-        <v>0.1617742428875175</v>
+        <v>0.2785640714564579</v>
       </c>
       <c r="H19">
-        <v>0.3067971186289213</v>
+        <v>0.1453818134093012</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6795962688813404</v>
+        <v>1.951788418630684</v>
       </c>
       <c r="M19">
-        <v>0.5049891340337211</v>
+        <v>1.220938360618078</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.837428283740536</v>
+        <v>0.8492830887251728</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.68974037084223</v>
+        <v>3.312362605363091</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02913465375608126</v>
+        <v>0.08926507932238792</v>
       </c>
       <c r="E20">
-        <v>1.855463126209429</v>
+        <v>4.217039372526358</v>
       </c>
       <c r="F20">
-        <v>0.301273461264195</v>
+        <v>0.4076989283269086</v>
       </c>
       <c r="G20">
-        <v>0.1629385010205056</v>
+        <v>0.2919128624804017</v>
       </c>
       <c r="H20">
-        <v>0.3057214056172484</v>
+        <v>0.149021891269058</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7043366026233286</v>
+        <v>2.029215869931107</v>
       </c>
       <c r="M20">
-        <v>0.5200909536935541</v>
+        <v>1.269086917063063</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8377472096089491</v>
+        <v>0.8853547667669091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.814739527352003</v>
+        <v>3.727696272526259</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03271116369941751</v>
+        <v>0.1003864101469674</v>
       </c>
       <c r="E21">
-        <v>2.006209998706396</v>
+        <v>4.708419836862561</v>
       </c>
       <c r="F21">
-        <v>0.3072255911660235</v>
+        <v>0.464973674128359</v>
       </c>
       <c r="G21">
-        <v>0.1672187840474919</v>
+        <v>0.3389192943821371</v>
       </c>
       <c r="H21">
-        <v>0.302454289676561</v>
+        <v>0.1624205840679593</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.787262433273213</v>
+        <v>2.290940022689256</v>
       </c>
       <c r="M21">
-        <v>0.5707448808248046</v>
+        <v>1.431955126878947</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8403151013033323</v>
+        <v>1.013557510964176</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.896429738566496</v>
+        <v>4.001935800873696</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03504165228142142</v>
+        <v>0.1076683055874952</v>
       </c>
       <c r="E22">
-        <v>2.10501040992645</v>
+        <v>5.032309999701681</v>
       </c>
       <c r="F22">
-        <v>0.3114640450977291</v>
+        <v>0.5042296587754009</v>
       </c>
       <c r="G22">
-        <v>0.1702943627176836</v>
+        <v>0.3714260805968763</v>
       </c>
       <c r="H22">
-        <v>0.300578991015243</v>
+        <v>0.1721289565719957</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8413075637865006</v>
+        <v>2.463389127734132</v>
       </c>
       <c r="M22">
-        <v>0.6037840449406673</v>
+        <v>1.539360660045332</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8431186159126298</v>
+        <v>1.103114511624113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.852830766309467</v>
+        <v>3.855286997304518</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03379848447403333</v>
+        <v>0.1037803407920563</v>
       </c>
       <c r="E23">
-        <v>2.052254318947007</v>
+        <v>4.859170110335725</v>
       </c>
       <c r="F23">
-        <v>0.3091698439413904</v>
+        <v>0.4830994888100903</v>
       </c>
       <c r="G23">
-        <v>0.1686271926329681</v>
+        <v>0.3539012897272329</v>
       </c>
       <c r="H23">
-        <v>0.3015560090910867</v>
+        <v>0.1668549434934476</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8124767856888866</v>
+        <v>2.371207057951011</v>
       </c>
       <c r="M23">
-        <v>0.5861565905621688</v>
+        <v>1.481938529513741</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8415187264621693</v>
+        <v>1.054751731071974</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.68769731835647</v>
+        <v>3.30561573445658</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02907608448064991</v>
+        <v>0.08908348118396958</v>
       </c>
       <c r="E24">
-        <v>1.853004185125144</v>
+        <v>4.209049542617834</v>
       </c>
       <c r="F24">
-        <v>0.3011820179608762</v>
+        <v>0.4067910766496254</v>
       </c>
       <c r="G24">
-        <v>0.1628731880058609</v>
+        <v>0.2911721330594617</v>
       </c>
       <c r="H24">
-        <v>0.3057791758469506</v>
+        <v>0.1488177961213069</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7029787175899571</v>
+        <v>2.02495852020698</v>
       </c>
       <c r="M24">
-        <v>0.5192619528892806</v>
+        <v>1.266439058372299</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8377240919764972</v>
+        <v>0.883348855750512</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.509584623591024</v>
+        <v>2.722258358638555</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02395435060999063</v>
+        <v>0.0732654634692409</v>
       </c>
       <c r="E25">
-        <v>1.639383605292693</v>
+        <v>3.517499773050361</v>
       </c>
       <c r="F25">
-        <v>0.2940432337344205</v>
+        <v>0.3312149749594866</v>
       </c>
       <c r="G25">
-        <v>0.1578381027993672</v>
+        <v>0.2300530222182005</v>
       </c>
       <c r="H25">
-        <v>0.3114426291174155</v>
+        <v>0.1329401802721222</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5842412662721301</v>
+        <v>1.656090267274209</v>
       </c>
       <c r="M25">
-        <v>0.446833832126714</v>
+        <v>1.037207572350631</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8383969894764789</v>
+        <v>0.7197935298706994</v>
       </c>
     </row>
   </sheetData>
